--- a/data/trans_orig/P20D2_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P20D2_2023-Clase-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>2088</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.5525371686940144</v>
+        <v>0.5525371686940143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1857874844637914</v>
+        <v>0.1852151030489474</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9016115985724882</v>
+        <v>0.9007136176700833</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -775,19 +775,19 @@
         <v>2088</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>567</v>
+        <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5350</v>
+        <v>5129</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1179527389432674</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03202686708118611</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3022088493989035</v>
+        <v>0.2896895707782165</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5090</v>
+        <v>4909</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08290048421690842</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3655322180739192</v>
+        <v>0.3524968105189541</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6583</v>
+        <v>5806</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.06520332332505441</v>
+        <v>0.06520332332505439</v>
       </c>
       <c r="V5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3718305267579657</v>
+        <v>0.3279563432224111</v>
       </c>
     </row>
     <row r="6">
@@ -867,7 +867,7 @@
         <v>12771</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8835</v>
+        <v>9016</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>13925</v>
@@ -876,7 +876,7 @@
         <v>0.9170995157830916</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.634467781926081</v>
+        <v>0.647503189481046</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -888,19 +888,19 @@
         <v>1691</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3077</v>
+        <v>3085</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.4474628313059856</v>
+        <v>0.4474628313059857</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09855422295537063</v>
+        <v>0.09928638232991679</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8142125155362088</v>
+        <v>0.8163642232559113</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>17</v>
@@ -909,19 +909,19 @@
         <v>14461</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9841</v>
+        <v>10207</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16746</v>
+        <v>16983</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.8168439377316783</v>
+        <v>0.8168439377316781</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5558596153383519</v>
+        <v>0.5765338451699317</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9459013509610502</v>
+        <v>0.9592875894088536</v>
       </c>
     </row>
     <row r="7">
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4600</v>
+        <v>4285</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1392795105861901</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5961228678707291</v>
+        <v>0.5552373346436267</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1034,7 +1034,7 @@
         <v>8650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5682</v>
+        <v>6368</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>9799</v>
@@ -1043,7 +1043,7 @@
         <v>0.8827511247444989</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5798099209760351</v>
+        <v>0.6498812511121886</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>9725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5621</v>
+        <v>5816</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13423</v>
+        <v>13538</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5552173822766884</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3209264275749141</v>
+        <v>0.3320537459053219</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7663188770316768</v>
+        <v>0.772897536863939</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3779</v>
+        <v>4044</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1217867446896514</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4896864055077493</v>
+        <v>0.5239976866388464</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2869</v>
+        <v>2435</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04814389875521014</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2927642260867648</v>
+        <v>0.2485327380199695</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5294</v>
+        <v>5108</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0805869893528182</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3022520854659778</v>
+        <v>0.2916307962912617</v>
       </c>
     </row>
     <row r="10">
@@ -1155,16 +1155,16 @@
         <v>5702</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2528</v>
+        <v>2822</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>7717</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7389337447241584</v>
+        <v>0.7389337447241585</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3276443424765396</v>
+        <v>0.3656978213598747</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>1</v>
@@ -1179,7 +1179,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>3266</v>
+        <v>3187</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06910497650029103</v>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3332735839577205</v>
+        <v>0.3251930832147258</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1197,19 +1197,19 @@
         <v>6379</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3001</v>
+        <v>3120</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>10743</v>
+        <v>10570</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3641956283704934</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1713038042362589</v>
+        <v>0.1781287695087881</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6133284234914721</v>
+        <v>0.603470330820975</v>
       </c>
     </row>
     <row r="11">
@@ -1301,19 +1301,19 @@
         <v>4133</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1127</v>
+        <v>1116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8627</v>
+        <v>8851</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2340447479158436</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06382965049654547</v>
+        <v>0.06319474542927399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4885457706538449</v>
+        <v>0.5012391221107073</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1322,16 +1322,16 @@
         <v>3432</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1492</v>
+        <v>1309</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>4711</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7285573077368899</v>
+        <v>0.7285573077368898</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3166835537301476</v>
+        <v>0.2778338968501987</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1343,19 +1343,19 @@
         <v>7565</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3707</v>
+        <v>3836</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>12483</v>
+        <v>12407</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3381870224013427</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1657126745361969</v>
+        <v>0.171459407577764</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5580238172290126</v>
+        <v>0.5546051888265938</v>
       </c>
     </row>
     <row r="13">
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6454</v>
+        <v>5811</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.08125640525551267</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3654785061945695</v>
+        <v>0.3290413737149969</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>2781</v>
+        <v>2732</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1328930510753871</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5902584740169975</v>
+        <v>0.5799280302619559</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1417,16 +1417,16 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>7386</v>
+        <v>6887</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.09213086665327753</v>
+        <v>0.09213086665327755</v>
       </c>
       <c r="V13" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3301838690064687</v>
+        <v>0.3078809040110039</v>
       </c>
     </row>
     <row r="14">
@@ -1443,19 +1443,19 @@
         <v>12091</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7191</v>
+        <v>7369</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15756</v>
+        <v>15700</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6846988468286436</v>
+        <v>0.6846988468286437</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4072159271011803</v>
+        <v>0.4173217437743673</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8922088620590496</v>
+        <v>0.8890537258388685</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1467,16 +1467,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2780</v>
+        <v>2348</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.1385496411877232</v>
+        <v>0.1385496411877231</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5901712713526664</v>
+        <v>0.4983426938834029</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1485,19 +1485,19 @@
         <v>12744</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7763</v>
+        <v>7966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>17012</v>
+        <v>16967</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.5696821109453797</v>
+        <v>0.5696821109453799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3470457888594013</v>
+        <v>0.3560814080825105</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7604689242538658</v>
+        <v>0.758469938022759</v>
       </c>
     </row>
     <row r="15">
@@ -1589,19 +1589,19 @@
         <v>2196</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5814</v>
+        <v>6327</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1521497361433037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03426848075690449</v>
+        <v>0.03330734245648515</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4027392616081067</v>
+        <v>0.438328780655075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -1610,19 +1610,19 @@
         <v>3189</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>934</v>
+        <v>1001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5928</v>
+        <v>6085</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3027806808517807</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08864873635658729</v>
+        <v>0.0950651930854039</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5627494298688052</v>
+        <v>0.5776757569221536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -1631,19 +1631,19 @@
         <v>5386</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2244</v>
+        <v>2284</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10222</v>
+        <v>10114</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2156993538718601</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08985553760931614</v>
+        <v>0.09148408650193492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4093970992368179</v>
+        <v>0.4050794198142942</v>
       </c>
     </row>
     <row r="17">
@@ -1660,19 +1660,19 @@
         <v>2427</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>505</v>
+        <v>477</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>6353</v>
+        <v>6744</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1681602587370744</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03497779821113168</v>
+        <v>0.03302824967617548</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4400858285602162</v>
+        <v>0.4671962704043293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1681,19 +1681,19 @@
         <v>1741</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>492</v>
+        <v>517</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4479</v>
+        <v>4331</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1652727232216101</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0466984236705995</v>
+        <v>0.04904447328649961</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4251786144791174</v>
+        <v>0.4111415723003186</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6</v>
@@ -1702,19 +1702,19 @@
         <v>4168</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1798</v>
+        <v>1640</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>8650</v>
+        <v>8470</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1669420377497432</v>
+        <v>0.1669420377497433</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07202037167143935</v>
+        <v>0.06566986616078944</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3464408479681065</v>
+        <v>0.3392017653412736</v>
       </c>
     </row>
     <row r="18">
@@ -1731,19 +1731,19 @@
         <v>9811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5863</v>
+        <v>5731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12585</v>
+        <v>12636</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.679690005119622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4061439164247859</v>
+        <v>0.3970399807544343</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8718671626145515</v>
+        <v>0.8753439572291981</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>9</v>
@@ -1752,19 +1752,19 @@
         <v>5604</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3023</v>
+        <v>2889</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8283</v>
+        <v>7997</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5319465959266092</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.28700043624584</v>
+        <v>0.2742933683300223</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7863010380068856</v>
+        <v>0.7591444250589359</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -1773,19 +1773,19 @@
         <v>15415</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10760</v>
+        <v>10941</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18906</v>
+        <v>19295</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.6173586083783966</v>
+        <v>0.6173586083783968</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.430916684110438</v>
+        <v>0.4381731115760445</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7571980286885065</v>
+        <v>0.7727556631150423</v>
       </c>
     </row>
     <row r="19">
@@ -1877,19 +1877,19 @@
         <v>3166</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>797</v>
+        <v>764</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7761</v>
+        <v>7131</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2267822227612916</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0570689601315478</v>
+        <v>0.0547055185304367</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5559289671804745</v>
+        <v>0.5108051417042616</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -1898,19 +1898,19 @@
         <v>7541</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4422</v>
+        <v>4749</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10605</v>
+        <v>11054</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.4853998750266068</v>
+        <v>0.4853998750266069</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2846164016694142</v>
+        <v>0.3056741015435976</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6826288755612375</v>
+        <v>0.7115471812152081</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -1919,19 +1919,19 @@
         <v>10707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6603</v>
+        <v>6598</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>15782</v>
+        <v>15447</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3629964149397918</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2238775148709233</v>
+        <v>0.2237154300928894</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5350681980237443</v>
+        <v>0.5237020475225223</v>
       </c>
     </row>
     <row r="21">
@@ -1948,19 +1948,19 @@
         <v>2193</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>5984</v>
+        <v>6016</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.157069982888891</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03390169214524397</v>
+        <v>0.03447977283098239</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4286287550077714</v>
+        <v>0.4309293413672424</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2</v>
@@ -1972,16 +1972,16 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3589</v>
+        <v>3877</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.06899981223232407</v>
+        <v>0.06899981223232408</v>
       </c>
       <c r="O21" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2310444723225688</v>
+        <v>0.2495358895489258</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>5</v>
@@ -1990,19 +1990,19 @@
         <v>3265</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>927</v>
+        <v>1140</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6830</v>
+        <v>6952</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1106833304468534</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03142591974781861</v>
+        <v>0.0386396065991283</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2315816221980844</v>
+        <v>0.2356981396031769</v>
       </c>
     </row>
     <row r="22">
@@ -2019,19 +2019,19 @@
         <v>8601</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4560</v>
+        <v>4717</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11720</v>
+        <v>11678</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6161477943498174</v>
+        <v>0.6161477943498173</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3266362103025943</v>
+        <v>0.3379227701915475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8395362371436104</v>
+        <v>0.8365112064906599</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -2040,19 +2040,19 @@
         <v>6922</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3939</v>
+        <v>3692</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>9956</v>
+        <v>9977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4456003127410691</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2535691586771102</v>
+        <v>0.2376415202097395</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6408694028105633</v>
+        <v>0.6422464404138174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>20</v>
@@ -2061,19 +2061,19 @@
         <v>15524</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>10696</v>
+        <v>11030</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>20311</v>
+        <v>20638</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5263202546133547</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3626374553084134</v>
+        <v>0.3739664391488576</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6886376339791397</v>
+        <v>0.6997144045389815</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>2220</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>5164</v>
+        <v>5126</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.2053565678615771</v>
+        <v>0.205356567861577</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03583580581217699</v>
+        <v>0.0327739590206217</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4777762807979551</v>
+        <v>0.4742467915990369</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -2199,19 +2199,19 @@
         <v>2727</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>525</v>
+        <v>464</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5700</v>
+        <v>5626</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.2409877852666289</v>
+        <v>0.2409877852666288</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.046410233235227</v>
+        <v>0.04095981014779575</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5037438026644108</v>
+        <v>0.4971287783732584</v>
       </c>
     </row>
     <row r="25">
@@ -2244,16 +2244,16 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>4033</v>
+        <v>3457</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.1150327888522034</v>
+        <v>0.1150327888522033</v>
       </c>
       <c r="O25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3731438610263532</v>
+        <v>0.319833506528553</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3</v>
@@ -2262,19 +2262,19 @@
         <v>1243</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3523</v>
+        <v>3448</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1098748046009873</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0</v>
+        <v>0.02137202945186776</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3112961410631892</v>
+        <v>0.3047298943806333</v>
       </c>
     </row>
     <row r="26">
@@ -2304,19 +2304,19 @@
         <v>7346</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3672</v>
+        <v>4161</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>9886</v>
+        <v>10083</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.6796106432862197</v>
+        <v>0.6796106432862195</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3396845279787042</v>
+        <v>0.3849348725377898</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9146468398984809</v>
+        <v>0.93284011047177</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -2325,19 +2325,19 @@
         <v>7346</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4135</v>
+        <v>4072</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10116</v>
+        <v>10249</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6491374101323839</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.365433986730044</v>
+        <v>0.3598495567322987</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8939498669283558</v>
+        <v>0.905688948025083</v>
       </c>
     </row>
     <row r="27">
@@ -2429,19 +2429,19 @@
         <v>11077</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6160</v>
+        <v>5863</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>18267</v>
+        <v>17611</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.1624177337725285</v>
+        <v>0.1624177337725286</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.09032338140100926</v>
+        <v>0.08596718803091875</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2678354941045267</v>
+        <v>0.2582119814409502</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>39</v>
@@ -2450,19 +2450,19 @@
         <v>27121</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>19996</v>
+        <v>20144</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>33656</v>
+        <v>33206</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.491604236599365</v>
+        <v>0.4916042365993651</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.362448085911325</v>
+        <v>0.365136207990281</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6100686394313206</v>
+        <v>0.6019071785985519</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>51</v>
@@ -2471,19 +2471,19 @@
         <v>38198</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>28037</v>
+        <v>29235</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47747</v>
+        <v>48551</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.3096213566341145</v>
+        <v>0.3096213566341146</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2272626909005634</v>
+        <v>0.23696627873732</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3870246659855935</v>
+        <v>0.3935427681250655</v>
       </c>
     </row>
     <row r="29">
@@ -2500,19 +2500,19 @@
         <v>8149</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3747</v>
+        <v>4094</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14639</v>
+        <v>14401</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1194840637806505</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05494459270328723</v>
+        <v>0.06003094857060706</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2146403383881753</v>
+        <v>0.2111571919109093</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>10</v>
@@ -2521,19 +2521,19 @@
         <v>5154</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2394</v>
+        <v>2581</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>8715</v>
+        <v>9075</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.09342650193751507</v>
+        <v>0.09342650193751505</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.04339513394187458</v>
+        <v>0.04677644514523534</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1579778733502659</v>
+        <v>0.1644950018409853</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>19</v>
@@ -2542,19 +2542,19 @@
         <v>13303</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>8250</v>
+        <v>7644</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>20655</v>
+        <v>20499</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1078318013904543</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0668692979124334</v>
+        <v>0.06195834730368056</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1674266966628896</v>
+        <v>0.1661609452474349</v>
       </c>
     </row>
     <row r="30">
@@ -2571,19 +2571,19 @@
         <v>48976</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>40858</v>
+        <v>41639</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>55088</v>
+        <v>55572</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.718098202446821</v>
+        <v>0.7180982024468212</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5990664494158288</v>
+        <v>0.6105251459813292</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8077131969672614</v>
+        <v>0.8148163878618275</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>32</v>
@@ -2592,19 +2592,19 @@
         <v>22893</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>16634</v>
+        <v>16484</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>30780</v>
+        <v>30664</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.41496926146312</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3015175824941344</v>
+        <v>0.2987964858130926</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5579389706201313</v>
+        <v>0.5558264838279845</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>88</v>
@@ -2613,19 +2613,19 @@
         <v>71869</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>61042</v>
+        <v>60944</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>81555</v>
+        <v>82138</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5825468419754312</v>
+        <v>0.5825468419754313</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4947905727772142</v>
+        <v>0.4939975555628019</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6610616191534447</v>
+        <v>0.6657889648857095</v>
       </c>
     </row>
     <row r="31">
